--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC1_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC1_TC2.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.1616512842689058</v>
+        <v>0.1693435919612135</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.16165128426890582, 'ngram_match_score': 0.02818057742896105, 'weighted_ngram_match_score': 0.07685910755489435, 'syntax_match_score': 0.42105263157894735, 'dataflow_match_score': 0.12051282051282051}</t>
+          <t>{'codebleu': 0.1693435919612135, 'ngram_match_score': 0.02818057742896105, 'weighted_ngram_match_score': 0.07685910755489435, 'syntax_match_score': 0.42105263157894735, 'dataflow_match_score': 0.15128205128205127}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC1_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC1_TC2.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.1693435919612135</v>
+        <v>0.1674205150381366</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.1693435919612135, 'ngram_match_score': 0.02818057742896105, 'weighted_ngram_match_score': 0.07685910755489435, 'syntax_match_score': 0.42105263157894735, 'dataflow_match_score': 0.15128205128205127}</t>
+          <t>{'codebleu': 0.1674205150381366, 'ngram_match_score': 0.02818057742896105, 'weighted_ngram_match_score': 0.07685910755489435, 'syntax_match_score': 0.42105263157894735, 'dataflow_match_score': 0.14358974358974358}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
